--- a/Code/Results/Cases/Case_0_142/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_142/res_line/loading_percent.xlsx
@@ -420,43 +420,31 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>6.635945705867112</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10.37001580375087</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.63459774282849</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>57.46853400518845</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.577017204894244</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>43.81791531965041</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
@@ -467,115 +455,805 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>6.36156289314446</v>
+      </c>
+      <c r="D3">
+        <v>9.932799549741441</v>
+      </c>
+      <c r="E3">
+        <v>15.64660407970148</v>
+      </c>
+      <c r="F3">
+        <v>54.74653084328685</v>
+      </c>
+      <c r="G3">
+        <v>3.59067411849389</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>41.89959447098078</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>6.191319843711881</v>
+      </c>
+      <c r="D4">
+        <v>9.661184158998511</v>
+      </c>
+      <c r="E4">
+        <v>15.0191474999139</v>
+      </c>
+      <c r="F4">
+        <v>53.04152504944322</v>
+      </c>
+      <c r="G4">
+        <v>3.599386568752197</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>40.70405085591003</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>6.121604157700459</v>
+      </c>
+      <c r="D5">
+        <v>9.549870614763561</v>
+      </c>
+      <c r="E5">
+        <v>14.75846209112959</v>
+      </c>
+      <c r="F5">
+        <v>52.339260671772</v>
+      </c>
+      <c r="G5">
+        <v>3.603020547688463</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>40.21314541698296</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>6.110010653948947</v>
+      </c>
+      <c r="D6">
+        <v>9.531354396464808</v>
+      </c>
+      <c r="E6">
+        <v>14.71488226015642</v>
+      </c>
+      <c r="F6">
+        <v>52.22223189823306</v>
+      </c>
+      <c r="G6">
+        <v>3.603629053939503</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>40.13142998565596</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>6.190380864410684</v>
+      </c>
+      <c r="D7">
+        <v>9.659685254163586</v>
+      </c>
+      <c r="E7">
+        <v>15.01565165174725</v>
+      </c>
+      <c r="F7">
+        <v>53.03208283556108</v>
+      </c>
+      <c r="G7">
+        <v>3.599435237682017</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>40.69744432510571</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>6.541765618966319</v>
+      </c>
+      <c r="D8">
+        <v>10.22001468208443</v>
+      </c>
+      <c r="E8">
+        <v>16.29838946084608</v>
+      </c>
+      <c r="F8">
+        <v>56.53754047220269</v>
+      </c>
+      <c r="G8">
+        <v>3.581659054646363</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>43.16056322942758</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>7.212750780115313</v>
+      </c>
+      <c r="D9">
+        <v>11.28734451916323</v>
+      </c>
+      <c r="E9">
+        <v>18.79612403537542</v>
+      </c>
+      <c r="F9">
+        <v>63.1072809779041</v>
+      </c>
+      <c r="G9">
+        <v>3.549331611278476</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>47.82263279226818</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>7.690147339259576</v>
+      </c>
+      <c r="D10">
+        <v>12.0451523743137</v>
+      </c>
+      <c r="E10">
+        <v>20.58375088589157</v>
+      </c>
+      <c r="F10">
+        <v>67.70816428229627</v>
+      </c>
+      <c r="G10">
+        <v>3.527031693501918</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>51.11448217591003</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>7.903214310912338</v>
+      </c>
+      <c r="D11">
+        <v>12.38303428544291</v>
+      </c>
+      <c r="E11">
+        <v>21.3593483993703</v>
+      </c>
+      <c r="F11">
+        <v>69.74611196780516</v>
+      </c>
+      <c r="G11">
+        <v>3.517180609436499</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>52.57822329169526</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>7.983260591861916</v>
+      </c>
+      <c r="D12">
+        <v>12.50992435062336</v>
+      </c>
+      <c r="E12">
+        <v>21.64774474923814</v>
+      </c>
+      <c r="F12">
+        <v>70.50955398888314</v>
+      </c>
+      <c r="G12">
+        <v>3.513490584806859</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>53.12734914213139</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>7.966050197505465</v>
+      </c>
+      <c r="D13">
+        <v>12.48264438204334</v>
+      </c>
+      <c r="E13">
+        <v>21.58586773649506</v>
+      </c>
+      <c r="F13">
+        <v>70.34550647338929</v>
+      </c>
+      <c r="G13">
+        <v>3.514283532090416</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>53.00931879882278</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>7.909812780346197</v>
+      </c>
+      <c r="D14">
+        <v>12.39349518539862</v>
+      </c>
+      <c r="E14">
+        <v>21.38318067458613</v>
+      </c>
+      <c r="F14">
+        <v>69.80908863387315</v>
+      </c>
+      <c r="G14">
+        <v>3.516876230559803</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>52.62350516863401</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>7.875281472856677</v>
+      </c>
+      <c r="D15">
+        <v>12.33874897351185</v>
+      </c>
+      <c r="E15">
+        <v>21.25834114382857</v>
+      </c>
+      <c r="F15">
+        <v>69.47942889227637</v>
+      </c>
+      <c r="G15">
+        <v>3.5184695349957</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>52.38650305035685</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>7.676136048894734</v>
+      </c>
+      <c r="D16">
+        <v>12.02292651529934</v>
+      </c>
+      <c r="E16">
+        <v>20.53231568818925</v>
+      </c>
+      <c r="F16">
+        <v>67.57383840747902</v>
+      </c>
+      <c r="G16">
+        <v>3.527681234255711</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>51.01811627569245</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>7.55287878075502</v>
+      </c>
+      <c r="D17">
+        <v>11.82736793875983</v>
+      </c>
+      <c r="E17">
+        <v>20.0773625496773</v>
+      </c>
+      <c r="F17">
+        <v>66.3904325284919</v>
+      </c>
+      <c r="G17">
+        <v>3.533406172143366</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>50.16977133003245</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>7.481600425524492</v>
+      </c>
+      <c r="D18">
+        <v>11.71424651807744</v>
+      </c>
+      <c r="E18">
+        <v>19.81213984045193</v>
+      </c>
+      <c r="F18">
+        <v>65.70460609259476</v>
+      </c>
+      <c r="G18">
+        <v>3.536726721687914</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>49.67866404424451</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>7.457402457658368</v>
+      </c>
+      <c r="D19">
+        <v>11.67583791718783</v>
+      </c>
+      <c r="E19">
+        <v>19.72172798472927</v>
+      </c>
+      <c r="F19">
+        <v>65.47152331887209</v>
+      </c>
+      <c r="G19">
+        <v>3.537855816423302</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>49.51185112705246</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>7.566039850301669</v>
+      </c>
+      <c r="D20">
+        <v>11.84825244036772</v>
+      </c>
+      <c r="E20">
+        <v>20.12615933154362</v>
+      </c>
+      <c r="F20">
+        <v>66.51694543154404</v>
+      </c>
+      <c r="G20">
+        <v>3.532793886909068</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>50.26040878979824</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>7.926348704516988</v>
+      </c>
+      <c r="D21">
+        <v>12.41970969913148</v>
+      </c>
+      <c r="E21">
+        <v>21.44285793795531</v>
+      </c>
+      <c r="F21">
+        <v>69.96687489542377</v>
+      </c>
+      <c r="G21">
+        <v>3.516113611490981</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>52.73697017801678</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>8.158100213464472</v>
+      </c>
+      <c r="D22">
+        <v>12.78699746786457</v>
+      </c>
+      <c r="E22">
+        <v>22.27252196706497</v>
+      </c>
+      <c r="F22">
+        <v>72.1732073626777</v>
+      </c>
+      <c r="G22">
+        <v>3.505446467013979</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>54.32536773618949</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>8.034764573488435</v>
+      </c>
+      <c r="D23">
+        <v>12.5915558901818</v>
+      </c>
+      <c r="E23">
+        <v>21.83250492350709</v>
+      </c>
+      <c r="F23">
+        <v>71.00017333357572</v>
+      </c>
+      <c r="G23">
+        <v>3.511118899484523</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>53.48045588863657</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>7.560091023127223</v>
+      </c>
+      <c r="D24">
+        <v>11.83881270743746</v>
+      </c>
+      <c r="E24">
+        <v>20.10410972692006</v>
+      </c>
+      <c r="F24">
+        <v>66.45976595850276</v>
+      </c>
+      <c r="G24">
+        <v>3.533070609956486</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>50.21944210561659</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>7.033681618515727</v>
+      </c>
+      <c r="D25">
+        <v>11.00278552492461</v>
+      </c>
+      <c r="E25">
+        <v>18.10381695481557</v>
+      </c>
+      <c r="F25">
+        <v>61.36722949087762</v>
+      </c>
+      <c r="G25">
+        <v>3.557815289299108</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>46.58293191443861</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
